--- a/iselUssSyncV2/OutputWSL/20220517_1344_D60L474W90Q8.1U0.18H56G2_S_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1344_D60L474W90Q8.1U0.18H56G2_S_DATA.xlsx
@@ -127,7 +127,7 @@
     <t>caseStr</t>
   </si>
   <si>
-    <t>1</t>
+    <t>kA</t>
   </si>
   <si>
     <t>Ftotal</t>
@@ -351,14 +351,16 @@
         <v>0.056415299050437281</v>
       </c>
       <c r="G2" s="0">
-        <v>0.06125476190476193</v>
-      </c>
-      <c r="H2" s="0"/>
+        <v>0.065250318725099635</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.0032503187250996321</v>
+      </c>
       <c r="I2" s="0">
         <v>0.038336293007769168</v>
       </c>
       <c r="J2" s="0">
-        <v>0.035252350597609561</v>
+        <v>0.032555697211155386</v>
       </c>
       <c r="K2" s="0">
         <v>0.002</v>
@@ -406,7 +408,7 @@
         <v>0.24430259604366594</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.30867075587305071</v>
+        <v>0.34780602868555976</v>
       </c>
       <c r="AA2" s="0">
         <v>0.19745935214688326</v>
@@ -426,21 +428,17 @@
       <c r="AF2" s="0">
         <v>2.4003173486426586</v>
       </c>
-      <c r="AG2" s="0">
-        <v>7.6291499606747326</v>
-      </c>
+      <c r="AG2" s="0"/>
       <c r="AH2" s="0">
         <v>4.5141300616299596</v>
       </c>
       <c r="AI2" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="0">
-        <v>10.029467309317392</v>
-      </c>
+      <c r="AK2" s="0"/>
     </row>
   </sheetData>
 </worksheet>
